--- a/tb_web18/excel/format.xlsx
+++ b/tb_web18/excel/format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id_prodi</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Kode Prodi dan  Golongan:</t>
+  </si>
+  <si>
+    <t>PLJ</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +101,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -125,10 +134,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +452,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,16 +463,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -478,12 +491,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -574,6 +587,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
